--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_TarisSG.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>Lỗi ic nguồn 3v3</t>
+  </si>
+  <si>
+    <t>Thay IC nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LE.1.00.---05.190404</t>
   </si>
 </sst>
 </file>
@@ -709,22 +718,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,6 +740,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1054,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1087,43 +1096,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1168,58 +1177,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1244,23 +1253,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1312,7 +1321,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1351,7 +1360,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1388,7 +1397,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1425,7 +1434,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1450,19 +1459,37 @@
         <v>63</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="I10" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>90</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1494,16 +1521,28 @@
       <c r="K11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="L11" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1540,7 +1579,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1579,7 +1618,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1611,16 +1650,28 @@
       <c r="K14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="1"/>
+      <c r="L14" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1657,7 +1708,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1694,7 +1745,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1861,7 +1912,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1901,7 +1952,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -1957,7 +2008,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2185,16 +2236,30 @@
         <v>63</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="I28" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="M28" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="N28" s="1"/>
       <c r="O28" s="40"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="10"/>
+      <c r="P28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="S28" s="4"/>
       <c r="T28" s="14"/>
       <c r="U28" s="4" t="s">
@@ -2202,7 +2267,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -2242,7 +2307,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -2482,7 +2547,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2578,7 +2643,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -3291,6 +3356,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3302,13 +3374,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3352,43 +3417,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3433,58 +3498,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3509,23 +3574,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3559,7 +3624,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3598,7 +3663,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3635,7 +3700,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3672,7 +3737,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3709,7 +3774,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3746,7 +3811,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3783,7 +3848,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3822,7 +3887,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3859,7 +3924,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3896,7 +3961,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3933,7 +3998,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5268,13 +5333,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5286,6 +5344,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5329,43 +5394,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5410,58 +5475,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -5486,23 +5551,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5536,7 +5601,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5575,7 +5640,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5612,7 +5677,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5641,7 +5706,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5670,7 +5735,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5699,7 +5764,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5728,7 +5793,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5759,7 +5824,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5788,7 +5853,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5817,7 +5882,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5846,7 +5911,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7077,6 +7142,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7088,13 +7160,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7138,43 +7203,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7219,58 +7284,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -7295,23 +7360,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7337,7 +7402,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7368,7 +7433,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7397,7 +7462,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7426,7 +7491,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7455,7 +7520,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7484,7 +7549,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7513,7 +7578,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7544,7 +7609,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7573,7 +7638,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7602,7 +7667,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7631,7 +7696,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8862,13 +8927,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8880,6 +8938,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_TarisSG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="36" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="TG102SE" sheetId="37" r:id="rId3"/>
     <sheet name="TongThang" sheetId="25" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102SE!$S$4:$S$51</definedName>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="66">
   <si>
     <t>STT</t>
   </si>
@@ -222,16 +225,7 @@
     <t>Lô 2-21</t>
   </si>
   <si>
-    <t>BT</t>
-  </si>
-  <si>
     <t>XỬ LÝ THIẾT BỊ BẢO HÀNH THÁNG 10 NĂM 2021</t>
-  </si>
-  <si>
-    <t>Còn BH</t>
-  </si>
-  <si>
-    <t>LE.3.00.---01.200923</t>
   </si>
   <si>
     <t>TG102SE</t>
@@ -244,81 +238,6 @@
   </si>
   <si>
     <t>TG102V</t>
-  </si>
-  <si>
-    <t>LE.1.00.---06.191010</t>
-  </si>
-  <si>
-    <t>Lock: 203.162.69.75,21575</t>
-  </si>
-  <si>
-    <t>Thiết bị hoạt động bình thường</t>
-  </si>
-  <si>
-    <t>Tùng</t>
-  </si>
-  <si>
-    <t>LE.2.00.---28.200624</t>
-  </si>
-  <si>
-    <t>Lock: 112.213.94.88,31006</t>
-  </si>
-  <si>
-    <t>Thiết bị không chốt GSM</t>
-  </si>
-  <si>
-    <t>Chạy lại FW module GSM/GPS, nâng cấp FW</t>
-  </si>
-  <si>
-    <t>Lock: 112.213.94.88,30002</t>
-  </si>
-  <si>
-    <t>Bung via anten GSM</t>
-  </si>
-  <si>
-    <t>Hàn lại anten GSM, nâng cấp FW</t>
-  </si>
-  <si>
-    <t>MCH,NCFW</t>
-  </si>
-  <si>
-    <t>Lock: 203.162.69.75,21475</t>
-  </si>
-  <si>
-    <t>Lock: 203.162.69.75,30050</t>
-  </si>
-  <si>
-    <t>Lỗi module GSM/GPS</t>
-  </si>
-  <si>
-    <t>Thay module GSM/GPS</t>
-  </si>
-  <si>
-    <t>Lock: 203.162.69.75,30001</t>
-  </si>
-  <si>
-    <t>Lock: 203.162.69.75,20575</t>
-  </si>
-  <si>
-    <t>Lỗi chân connector nguồn</t>
-  </si>
-  <si>
-    <t>Xử lý lại connector nguồn, nâng cấp FW</t>
-  </si>
-  <si>
-    <t>PC+PM</t>
-  </si>
-  <si>
-    <t>NG,NCFW</t>
-  </si>
-  <si>
-    <t>Lỗi ic nguồn 3v3</t>
-  </si>
-  <si>
-    <t>Thay IC nguồn, nâng cấp FW</t>
-  </si>
-  <si>
-    <t>LE.1.00.---05.190404</t>
   </si>
 </sst>
 </file>
@@ -718,9 +637,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -740,21 +674,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -772,6 +691,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TongHopThietBiBH"/>
+      <sheetName val="ThietBiBH_NhieuLan"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1514">
+          <cell r="K1514" t="str">
+            <v>Lỗi ic nguồn 3v3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1063,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView showZeros="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1096,43 +1036,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="A1" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="70"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1177,58 +1117,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1253,75 +1193,31 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="39">
-        <v>868183037820854</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="4"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1333,34 +1229,8 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="39">
-        <v>860157040197003</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1370,34 +1240,8 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="39">
-        <v>868183034728738</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1407,34 +1251,8 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="39">
-        <v>868183035925515</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="4"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1444,52 +1262,8 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="39">
-        <v>860157040220557</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="S10" s="4"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1499,50 +1273,8 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="39">
-        <v>868183035900096</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1552,34 +1284,8 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="39">
-        <v>867857039908111</v>
-      </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="4"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1591,34 +1297,8 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="39">
-        <v>867717030431945</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="4"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1628,50 +1308,8 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="39">
-        <v>868183035854616</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="S14" s="4"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1681,34 +1319,8 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="39">
-        <v>868183035906234</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1718,34 +1330,8 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="39">
-        <v>867717030433743</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1755,32 +1341,6 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="39">
-        <v>868183035896872</v>
-      </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="4"/>
       <c r="T17" s="14"/>
       <c r="U17" s="65"/>
       <c r="V17" s="15"/>
@@ -1790,32 +1350,6 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="39">
-        <v>868183035849558</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="4"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="16"/>
@@ -1825,48 +1359,6 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="39">
-        <v>868183035878375</v>
-      </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L19" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R19" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="S19" s="4"/>
       <c r="T19" s="14"/>
       <c r="U19" s="64" t="s">
         <v>39</v>
@@ -1880,39 +1372,13 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="39">
-        <v>867857039895169</v>
-      </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="4"/>
       <c r="T20" s="14"/>
       <c r="U20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="V20" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>7</v>
+        <f>COUNTIF($Q$49:$Q$51,"PM")</f>
+        <v>0</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1920,39 +1386,13 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="39">
-        <v>868183034534003</v>
-      </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="4"/>
       <c r="T21" s="14"/>
       <c r="U21" s="10" t="s">
         <v>49</v>
       </c>
       <c r="V21" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
+        <f>COUNTIF($Q$49:$Q$51,"PC")</f>
+        <v>0</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -1960,55 +1400,13 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="39">
-        <v>868183038026014</v>
-      </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="L22" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R22" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="S22" s="4"/>
       <c r="T22" s="14"/>
       <c r="U22" s="10" t="s">
         <v>50</v>
       </c>
       <c r="V22" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <f>COUNTIF($Q$49:$Q$51,"PC+PM")</f>
+        <v>0</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2016,32 +1414,6 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="39">
-        <v>868183037839854</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="4"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="16"/>
@@ -2051,32 +1423,6 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="39">
-        <v>868183035890529</v>
-      </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="4"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
       <c r="V24" s="16"/>
@@ -2086,48 +1432,6 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="39">
-        <v>868183037797714</v>
-      </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L25" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="10"/>
-      <c r="O25" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S25" s="4"/>
       <c r="T25" s="14"/>
       <c r="U25" s="64" t="s">
         <v>46</v>
@@ -2141,38 +1445,12 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="39">
-        <v>868183035881817</v>
-      </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="4"/>
       <c r="T26" s="14"/>
       <c r="U26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="V26" s="10">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <f>COUNTIF($R$49:$R$51,"*MCU*")</f>
         <v>0</v>
       </c>
       <c r="W26" s="14"/>
@@ -2181,39 +1459,13 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="39">
-        <v>868183034714068</v>
-      </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="4"/>
       <c r="T27" s="14"/>
       <c r="U27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="V27" s="10">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>1</v>
+        <f>COUNTIF($R$49:$R$51,"*GSM*")</f>
+        <v>0</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -2221,53 +1473,13 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="39">
-        <v>868183038516949</v>
-      </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S28" s="4"/>
       <c r="T28" s="14"/>
       <c r="U28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="V28" s="10">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>1</v>
+        <f>COUNTIF($R$49:$R$51,"*GPS*")</f>
+        <v>0</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -2275,39 +1487,13 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="39">
-        <v>868183035889299</v>
-      </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="4"/>
       <c r="T29" s="14"/>
       <c r="U29" s="4" t="s">
         <v>52</v>
       </c>
       <c r="V29" s="10">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>2</v>
+        <f>COUNTIF($R$49:$R$51,"*NG*")</f>
+        <v>0</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -2315,38 +1501,12 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="39">
-        <v>868183034798202</v>
-      </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="4"/>
       <c r="T30" s="14"/>
       <c r="U30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="V30" s="10">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <f>COUNTIF($R$49:$R$51,"*I/O*")</f>
         <v>0</v>
       </c>
       <c r="W30" s="14"/>
@@ -2355,39 +1515,13 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="39">
-        <v>868183038518218</v>
-      </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="4"/>
       <c r="T31" s="14"/>
       <c r="U31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="V31" s="10">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <f>COUNTIF($R$49:$R$51,"*LK*")</f>
+        <v>0</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2395,39 +1529,13 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="39">
-        <v>867717030430723</v>
-      </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="4"/>
       <c r="T32" s="14"/>
       <c r="U32" s="4" t="s">
         <v>28</v>
       </c>
       <c r="V32" s="10">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>1</v>
+        <f>COUNTIF($R$49:$R$51,"*MCH*")</f>
+        <v>0</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -2435,38 +1543,12 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="39">
-        <v>867857039924720</v>
-      </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="4"/>
       <c r="T33" s="14"/>
       <c r="U33" s="4" t="s">
         <v>47</v>
       </c>
       <c r="V33" s="10">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <f>COUNTIF($R$49:$R$51,"*SF*")</f>
         <v>0</v>
       </c>
       <c r="W33" s="14"/>
@@ -2475,38 +1557,12 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="39">
-        <v>867717030619952</v>
-      </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="4"/>
       <c r="T34" s="14"/>
       <c r="U34" s="4" t="s">
         <v>48</v>
       </c>
       <c r="V34" s="10">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <f>COUNTIF($R$49:$R$51,"*RTB*")</f>
         <v>0</v>
       </c>
       <c r="W34" s="14"/>
@@ -2515,39 +1571,13 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="39">
-        <v>868183035891246</v>
-      </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="4"/>
       <c r="T35" s="14"/>
       <c r="U35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="V35" s="10">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>9</v>
+        <f>COUNTIF($R$49:$R$51,"*NCFW*")</f>
+        <v>0</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2555,38 +1585,12 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="39">
-        <v>868183034578075</v>
-      </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="4"/>
       <c r="T36" s="14"/>
       <c r="U36" s="4" t="s">
         <v>29</v>
       </c>
       <c r="V36" s="10">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <f>COUNTIF($R$49:$R$51,"*KL*")</f>
         <v>0</v>
       </c>
       <c r="W36" s="14"/>
@@ -2595,55 +1599,13 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="39">
-        <v>868183035852362</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R37" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S37" s="4"/>
       <c r="T37" s="14"/>
       <c r="U37" s="18" t="s">
         <v>33</v>
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2651,46 +1613,6 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="39">
-        <v>868183035877906</v>
-      </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R38" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S38" s="4"/>
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
       <c r="V38" s="16"/>
@@ -2700,48 +1622,6 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="39">
-        <v>868183038027921</v>
-      </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R39" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S39" s="4"/>
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
       <c r="V39" s="16"/>
@@ -2751,38 +1631,12 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="39">
-        <v>868183038082124</v>
-      </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="4"/>
       <c r="T40" s="14"/>
       <c r="U40" s="18" t="s">
         <v>40</v>
       </c>
       <c r="V40" s="10">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <f>COUNTIF($O$49:$O$51,"*DM*")</f>
         <v>0</v>
       </c>
       <c r="W40" s="14"/>
@@ -2791,54 +1645,12 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="39">
-        <v>860157040210202</v>
-      </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="R41" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="S41" s="4"/>
       <c r="T41" s="14"/>
       <c r="U41" s="18" t="s">
         <v>41</v>
       </c>
       <c r="V41" s="10">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <f>COUNTIF($O$49:$O$51,"*KS*")</f>
         <v>0</v>
       </c>
       <c r="W41" s="14"/>
@@ -2847,32 +1659,6 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="39">
-        <v>868183035932305</v>
-      </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="4"/>
       <c r="T42" s="14"/>
       <c r="U42" s="14"/>
       <c r="V42" s="16"/>
@@ -2882,32 +1668,6 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="39">
-        <v>868183034660667</v>
-      </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="4"/>
       <c r="T43" s="14"/>
       <c r="U43" s="14"/>
       <c r="V43" s="16"/>
@@ -2917,32 +1677,6 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="39">
-        <v>868183034729686</v>
-      </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="4"/>
       <c r="T44" s="14"/>
       <c r="U44" s="10" t="s">
         <v>3</v>
@@ -2961,46 +1695,20 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="39">
-        <v>868183035880009</v>
-      </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="4"/>
       <c r="T45" s="14"/>
       <c r="U45" s="10" t="s">
         <v>44</v>
       </c>
       <c r="V45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <f>COUNTIFS($D$49:$D$300,"TG102LE",$H$49:$H$300,"*Lô 3-20*")</f>
         <v>0</v>
       </c>
       <c r="W45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <f>COUNTIFS($D$49:$D$300,"TG102LE",$H$49:$H$300,"*Lô 1-21*")</f>
         <v>0</v>
       </c>
       <c r="X45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <f>COUNTIFS($D$49:$D$300,"TG102LE",$H$49:$H$300,"*Lô 2-21*")</f>
         <v>0</v>
       </c>
     </row>
@@ -3008,46 +1716,20 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="39">
-        <v>867857039905646</v>
-      </c>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="4"/>
       <c r="T46" s="14"/>
       <c r="U46" s="10" t="s">
         <v>56</v>
       </c>
       <c r="V46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <f>COUNTIFS($D$49:$D$300,"TG102LE-4G",$H$49:$H$300,"*Lô 3-20*")</f>
         <v>0</v>
       </c>
       <c r="W46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <f>COUNTIFS($D$49:$D$300,"TG102LE-4G",$H$49:$H$300,"*Lô 1-21*")</f>
         <v>0</v>
       </c>
       <c r="X46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <f>COUNTIFS($D$49:$D$300,"TG102LE-4G",$H$49:$H$300,"*Lô 2-21*")</f>
         <v>0</v>
       </c>
     </row>
@@ -3055,46 +1737,20 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="39">
-        <v>868183034549670</v>
-      </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H47" s="1"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="4"/>
       <c r="T47" s="14"/>
       <c r="U47" s="10" t="s">
         <v>45</v>
       </c>
       <c r="V47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <f>COUNTIFS($D$49:$D$300,"TG102E",$H$49:$H$300,"*Lô 3-20*")</f>
         <v>0</v>
       </c>
       <c r="W47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <f>COUNTIFS($D$49:$D$300,"TG102E",$H$49:$H$300,"*Lô 1-21*")</f>
         <v>0</v>
       </c>
       <c r="X47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <f>COUNTIFS($D$49:$D$300,"TG102E",$H$49:$H$300,"*Lô 2-21*")</f>
         <v>0</v>
       </c>
     </row>
@@ -3102,49 +1758,23 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="37">
-        <v>44497</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="39">
-        <v>868183034598255</v>
-      </c>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="4"/>
       <c r="T48" s="35">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <f>COUNTIF([1]TongHopThietBiBH!K1513:K1524,"*GSM*")</f>
         <v>0</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
       </c>
       <c r="V48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <f>COUNTIFS($D$49:$D$300,"ACT-01",$H$49:$H$300,"*Lô 3-20*")</f>
         <v>0</v>
       </c>
       <c r="W48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <f>COUNTIFS($D$49:$D$300,"ACT-01",$H$49:$H$300,"*Lô 1-21*")</f>
         <v>0</v>
       </c>
       <c r="X48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <f>COUNTIFS($D$49:$D$300,"ACT-01",$H$49:$H$300,"*Lô 2-21*")</f>
         <v>0</v>
       </c>
     </row>
@@ -3356,13 +1986,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3374,6 +1997,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3385,7 +2015,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B29"/>
+      <selection activeCell="B6" sqref="B6:S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3417,43 +2047,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="A1" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="70"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3498,58 +2128,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3574,23 +2204,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3602,14 +2232,14 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E6" s="39">
         <v>868926033937282</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="60"/>
@@ -3624,7 +2254,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3641,14 +2271,14 @@
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E7" s="39">
         <v>868926033919298</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="60"/>
@@ -3663,7 +2293,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3678,14 +2308,14 @@
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E8" s="39">
         <v>864811037200164</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60"/>
@@ -3700,7 +2330,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3715,14 +2345,14 @@
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E9" s="39">
         <v>868411036981962</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="50"/>
@@ -3737,7 +2367,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3752,14 +2382,14 @@
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E10" s="39">
         <v>864811037229262</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="60"/>
@@ -3774,7 +2404,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3789,14 +2419,14 @@
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E11" s="39">
         <v>864811036983356</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="60"/>
@@ -3811,7 +2441,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3826,14 +2456,14 @@
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E12" s="39">
         <v>866192037750096</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="60"/>
@@ -3848,7 +2478,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3865,14 +2495,14 @@
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E13" s="39">
         <v>868926033950772</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="50"/>
@@ -3887,7 +2517,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3902,14 +2532,14 @@
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" s="39">
         <v>868926033922870</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="50"/>
@@ -3924,7 +2554,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3939,14 +2569,14 @@
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E15" s="39">
         <v>866192037779442</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="50"/>
@@ -3961,7 +2591,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3976,14 +2606,14 @@
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E16" s="39">
         <v>864811036936917</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="60"/>
@@ -3998,7 +2628,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4013,14 +2643,14 @@
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E17" s="39">
         <v>864811037199523</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="60"/>
@@ -4048,14 +2678,14 @@
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E18" s="39">
         <v>868345035609411</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="60"/>
@@ -4083,14 +2713,14 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E19" s="39">
         <v>866192037785142</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="60"/>
@@ -4122,14 +2752,14 @@
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E20" s="39">
         <v>866192037772017</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="60"/>
@@ -4162,14 +2792,14 @@
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E21" s="39">
         <v>868926033918985</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="60"/>
@@ -4202,14 +2832,14 @@
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E22" s="39">
         <v>868926033962108</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="60"/>
@@ -4242,14 +2872,14 @@
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E23" s="39">
         <v>869627031807894</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="60"/>
@@ -4277,14 +2907,14 @@
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E24" s="39">
         <v>864811036988322</v>
       </c>
       <c r="F24" s="38"/>
       <c r="G24" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="60"/>
@@ -4312,14 +2942,14 @@
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E25" s="39">
         <v>864811036952047</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="60"/>
@@ -4351,14 +2981,14 @@
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E26" s="39">
         <v>864811037162232</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="60"/>
@@ -4391,14 +3021,14 @@
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E27" s="39">
         <v>866192037792148</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="60"/>
@@ -4431,14 +3061,14 @@
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E28" s="39">
         <v>868926039920296</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="60"/>
@@ -4471,14 +3101,14 @@
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E29" s="39">
         <v>868345031043383</v>
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="60"/>
@@ -5333,6 +3963,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5344,13 +3981,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5361,8 +3991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5394,43 +4024,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="A1" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="70"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5475,58 +4105,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -5551,23 +4181,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5579,14 +4209,14 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E6" s="39">
         <v>863586032858221</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="60"/>
@@ -5601,7 +4231,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5618,14 +4248,14 @@
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" s="39">
         <v>862631034708957</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="60"/>
@@ -5640,7 +4270,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5655,14 +4285,14 @@
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" s="39">
         <v>863586034549182</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60"/>
@@ -5677,7 +4307,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5706,7 +4336,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5735,7 +4365,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5764,7 +4394,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5793,7 +4423,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5824,7 +4454,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5853,7 +4483,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5882,7 +4512,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5911,7 +4541,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7142,13 +5772,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7160,6 +5783,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7203,43 +5833,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="A1" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="70"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7284,58 +5914,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -7360,23 +5990,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7402,7 +6032,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7433,7 +6063,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7462,7 +6092,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7491,7 +6121,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7520,7 +6150,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7549,7 +6179,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7578,7 +6208,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7609,7 +6239,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7638,7 +6268,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7667,7 +6297,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7696,7 +6326,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8927,6 +7557,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8938,13 +7575,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_TarisSG.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="36" r:id="rId1"/>
@@ -17,9 +17,6 @@
     <sheet name="TG102SE" sheetId="37" r:id="rId3"/>
     <sheet name="TongThang" sheetId="25" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102SE!$S$4:$S$51</definedName>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="95">
   <si>
     <t>STT</t>
   </si>
@@ -238,6 +235,93 @@
   </si>
   <si>
     <t>TG102V</t>
+  </si>
+  <si>
+    <t>Còn BH</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,21575</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,30002</t>
+  </si>
+  <si>
+    <t>Lỗi ic nguồn 3v3</t>
+  </si>
+  <si>
+    <t>Thay IC nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,30001</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,21475</t>
+  </si>
+  <si>
+    <t>Lỗi module GSM/GPS</t>
+  </si>
+  <si>
+    <t>LE.1.00.---05.190404</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,31006</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>Chạy lại FW module GSM/GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>MCH,NCFW</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,30050</t>
+  </si>
+  <si>
+    <t>Bung via anten GSM</t>
+  </si>
+  <si>
+    <t>Hàn lại anten GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20575</t>
+  </si>
+  <si>
+    <t>Lỗi chân connector nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý lại connector nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>"*LK</t>
   </si>
 </sst>
 </file>
@@ -440,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -637,22 +721,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -676,6 +745,27 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,27 +781,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TongHopThietBiBH"/>
-      <sheetName val="ThietBiBH_NhieuLan"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1514">
-          <cell r="K1514" t="str">
-            <v>Lỗi ic nguồn 3v3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1001,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X57"/>
+  <dimension ref="A1:Y1410"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S48"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1036,43 +1105,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1117,58 +1186,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1193,33 +1262,75 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="T6" s="65"/>
-      <c r="U6" s="66" t="s">
-        <v>18</v>
-      </c>
+      <c r="B6" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868183037820854</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="79"/>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1229,8 +1340,34 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="T7" s="65"/>
-      <c r="U7" s="67"/>
+      <c r="B7" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>860157040197003</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1240,8 +1377,34 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="T8" s="65"/>
-      <c r="U8" s="67"/>
+      <c r="B8" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183034728738</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1251,8 +1414,34 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="T9" s="65"/>
-      <c r="U9" s="67"/>
+      <c r="B9" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183035925515</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1262,8 +1451,52 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="T10" s="65"/>
-      <c r="U10" s="67"/>
+      <c r="B10" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>860157040220557</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1273,8 +1506,50 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="T11" s="65"/>
-      <c r="U11" s="67"/>
+      <c r="B11" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868183035900096</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1284,10 +1559,34 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="T12" s="65"/>
-      <c r="U12" s="66" t="s">
-        <v>19</v>
-      </c>
+      <c r="B12" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="39">
+        <v>867857039908111</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="79"/>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1297,8 +1596,34 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="T13" s="65"/>
-      <c r="U13" s="67"/>
+      <c r="B13" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="39">
+        <v>867717030431945</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1308,8 +1633,50 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="T14" s="65"/>
-      <c r="U14" s="67"/>
+      <c r="B14" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="39">
+        <v>868183035854616</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1319,8 +1686,34 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="B15" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="39">
+        <v>868183035906234</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1330,8 +1723,34 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="B16" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="39">
+        <v>867717030433743</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1341,8 +1760,34 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="T17" s="14"/>
-      <c r="U17" s="65"/>
+      <c r="B17" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="39">
+        <v>868183035896872</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="79"/>
       <c r="V17" s="15"/>
       <c r="W17" s="65"/>
     </row>
@@ -1350,8 +1795,34 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
+      <c r="B18" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="39">
+        <v>868183035849558</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="79"/>
       <c r="V18" s="16"/>
       <c r="W18" s="14"/>
     </row>
@@ -1359,10 +1830,50 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="T19" s="14"/>
-      <c r="U19" s="64" t="s">
-        <v>39</v>
-      </c>
+      <c r="B19" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="39">
+        <v>868183035878375</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" s="4"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="79"/>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
@@ -1372,10 +1883,34 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="T20" s="14"/>
-      <c r="U20" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="B20" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="39">
+        <v>867857039895169</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="79"/>
       <c r="V20" s="10">
         <f>COUNTIF($Q$49:$Q$51,"PM")</f>
         <v>0</v>
@@ -1386,10 +1921,34 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="T21" s="14"/>
-      <c r="U21" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="B21" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="39">
+        <v>868183034534003</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="79"/>
       <c r="V21" s="10">
         <f>COUNTIF($Q$49:$Q$51,"PC")</f>
         <v>0</v>
@@ -1400,10 +1959,50 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="T22" s="14"/>
-      <c r="U22" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="B22" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="39">
+        <v>868183038026014</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="4"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="79"/>
       <c r="V22" s="10">
         <f>COUNTIF($Q$49:$Q$51,"PC+PM")</f>
         <v>0</v>
@@ -1414,8 +2013,34 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
+      <c r="B23" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="39">
+        <v>868183037839854</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="79"/>
       <c r="V23" s="16"/>
       <c r="W23" s="14"/>
     </row>
@@ -1423,8 +2048,34 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
+      <c r="B24" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="39">
+        <v>868183035890529</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="79"/>
       <c r="V24" s="16"/>
       <c r="W24" s="14"/>
     </row>
@@ -1432,10 +2083,50 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="T25" s="14"/>
-      <c r="U25" s="64" t="s">
-        <v>46</v>
-      </c>
+      <c r="B25" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="39">
+        <v>868183037797714</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" s="4"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="79"/>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
@@ -1445,10 +2136,34 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="T26" s="14"/>
-      <c r="U26" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B26" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="39">
+        <v>868183035881817</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="79"/>
       <c r="V26" s="10">
         <f>COUNTIF($R$49:$R$51,"*MCU*")</f>
         <v>0</v>
@@ -1459,10 +2174,34 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="T27" s="14"/>
-      <c r="U27" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="B27" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="39">
+        <v>868183034714068</v>
+      </c>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="79"/>
       <c r="V27" s="10">
         <f>COUNTIF($R$49:$R$51,"*GSM*")</f>
         <v>0</v>
@@ -1473,10 +2212,48 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="T28" s="14"/>
-      <c r="U28" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="B28" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="39">
+        <v>868183038516949</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="4"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="79"/>
       <c r="V28" s="10">
         <f>COUNTIF($R$49:$R$51,"*GPS*")</f>
         <v>0</v>
@@ -1487,10 +2264,34 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="T29" s="14"/>
-      <c r="U29" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="B29" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="39">
+        <v>868183035889299</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="79"/>
       <c r="V29" s="10">
         <f>COUNTIF($R$49:$R$51,"*NG*")</f>
         <v>0</v>
@@ -1501,10 +2302,34 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="T30" s="14"/>
-      <c r="U30" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="B30" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="39">
+        <v>868183034798202</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="79"/>
       <c r="V30" s="10">
         <f>COUNTIF($R$49:$R$51,"*I/O*")</f>
         <v>0</v>
@@ -1515,10 +2340,34 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="T31" s="14"/>
-      <c r="U31" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B31" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="39">
+        <v>868183038518218</v>
+      </c>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="79"/>
       <c r="V31" s="10">
         <f>COUNTIF($R$49:$R$51,"*LK*")</f>
         <v>0</v>
@@ -1529,10 +2378,34 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="T32" s="14"/>
-      <c r="U32" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="B32" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="39">
+        <v>867717030430723</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="79"/>
       <c r="V32" s="10">
         <f>COUNTIF($R$49:$R$51,"*MCH*")</f>
         <v>0</v>
@@ -1543,10 +2416,34 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="T33" s="14"/>
-      <c r="U33" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="B33" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="39">
+        <v>867857039924720</v>
+      </c>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="79"/>
       <c r="V33" s="10">
         <f>COUNTIF($R$49:$R$51,"*SF*")</f>
         <v>0</v>
@@ -1557,10 +2454,34 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="T34" s="14"/>
-      <c r="U34" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="B34" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="39">
+        <v>867717030619952</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="79"/>
       <c r="V34" s="10">
         <f>COUNTIF($R$49:$R$51,"*RTB*")</f>
         <v>0</v>
@@ -1571,10 +2492,34 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="T35" s="14"/>
-      <c r="U35" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="B35" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="39">
+        <v>868183035891246</v>
+      </c>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="79"/>
       <c r="V35" s="10">
         <f>COUNTIF($R$49:$R$51,"*NCFW*")</f>
         <v>0</v>
@@ -1585,10 +2530,34 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="T36" s="14"/>
-      <c r="U36" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B36" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="39">
+        <v>868183034578075</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="79"/>
       <c r="V36" s="10">
         <f>COUNTIF($R$49:$R$51,"*KL*")</f>
         <v>0</v>
@@ -1599,10 +2568,50 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="T37" s="14"/>
-      <c r="U37" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="B37" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="39">
+        <v>868183035852362</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S37" s="4"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="79"/>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
         <v>0</v>
@@ -1613,8 +2622,48 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
+      <c r="B38" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="39">
+        <v>868183035877906</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S38" s="4"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="79"/>
       <c r="V38" s="16"/>
       <c r="W38" s="14"/>
     </row>
@@ -1622,8 +2671,50 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
+      <c r="B39" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="39">
+        <v>868183038027921</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S39" s="4"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="79"/>
       <c r="V39" s="16"/>
       <c r="W39" s="14"/>
     </row>
@@ -1631,10 +2722,34 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="T40" s="14"/>
-      <c r="U40" s="18" t="s">
-        <v>40</v>
-      </c>
+      <c r="B40" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="39">
+        <v>868183038082124</v>
+      </c>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="79"/>
       <c r="V40" s="10">
         <f>COUNTIF($O$49:$O$51,"*DM*")</f>
         <v>0</v>
@@ -1645,10 +2760,50 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="T41" s="14"/>
-      <c r="U41" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="B41" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="39">
+        <v>860157040210202</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R41" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="S41" s="4"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="79"/>
       <c r="V41" s="10">
         <f>COUNTIF($O$49:$O$51,"*KS*")</f>
         <v>0</v>
@@ -1659,8 +2814,34 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
+      <c r="B42" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="39">
+        <v>868183035932305</v>
+      </c>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="79"/>
       <c r="V42" s="16"/>
       <c r="W42" s="14"/>
     </row>
@@ -1668,8 +2849,34 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
+      <c r="B43" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="39">
+        <v>868183034660667</v>
+      </c>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="79"/>
       <c r="V43" s="16"/>
       <c r="W43" s="14"/>
     </row>
@@ -1677,10 +2884,34 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="T44" s="14"/>
-      <c r="U44" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="B44" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="39">
+        <v>868183034729686</v>
+      </c>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="79"/>
       <c r="V44" s="10" t="s">
         <v>58</v>
       </c>
@@ -1695,10 +2926,34 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="T45" s="14"/>
-      <c r="U45" s="10" t="s">
+      <c r="B45" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="38" t="s">
         <v>44</v>
       </c>
+      <c r="E45" s="39">
+        <v>868183035880009</v>
+      </c>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="79"/>
       <c r="V45" s="10">
         <f>COUNTIFS($D$49:$D$300,"TG102LE",$H$49:$H$300,"*Lô 3-20*")</f>
         <v>0</v>
@@ -1716,10 +2971,34 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="T46" s="14"/>
-      <c r="U46" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="B46" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="39">
+        <v>867857039905646</v>
+      </c>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="79"/>
       <c r="V46" s="10">
         <f>COUNTIFS($D$49:$D$300,"TG102LE-4G",$H$49:$H$300,"*Lô 3-20*")</f>
         <v>0</v>
@@ -1737,10 +3016,34 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="T47" s="14"/>
-      <c r="U47" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="B47" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="39">
+        <v>868183034549670</v>
+      </c>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="79"/>
       <c r="V47" s="10">
         <f>COUNTIFS($D$49:$D$300,"TG102E",$H$49:$H$300,"*Lô 3-20*")</f>
         <v>0</v>
@@ -1758,13 +3061,34 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="T48" s="35">
-        <f>COUNTIF([1]TongHopThietBiBH!K1513:K1524,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="B48" s="37">
+        <v>44497</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="39">
+        <v>868183034598255</v>
+      </c>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="79"/>
       <c r="V48" s="10">
         <f>COUNTIFS($D$49:$D$300,"ACT-01",$H$49:$H$300,"*Lô 3-20*")</f>
         <v>0</v>
@@ -1984,8 +3308,18 @@
       <c r="V57" s="25"/>
       <c r="W57" s="25"/>
     </row>
+    <row r="1410" spans="25:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y1410" s="80" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="16">
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -1997,13 +3331,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2015,7 +3342,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S30"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2047,43 +3374,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -2128,58 +3455,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -2204,23 +3531,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2254,7 +3581,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -2293,7 +3620,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -2330,7 +3657,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -2367,7 +3694,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -2404,7 +3731,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2441,7 +3768,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -2478,7 +3805,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -2517,7 +3844,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -2554,7 +3881,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2591,7 +3918,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2628,7 +3955,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3963,13 +5290,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3981,6 +5301,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3991,8 +5318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4024,43 +5351,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -4105,58 +5432,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -4181,23 +5508,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4231,7 +5558,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4270,7 +5597,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4307,7 +5634,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4336,7 +5663,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4365,7 +5692,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4394,7 +5721,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4423,7 +5750,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -4454,7 +5781,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4483,7 +5810,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4512,7 +5839,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4541,7 +5868,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5772,6 +7099,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5783,13 +7117,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5833,43 +7160,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5914,58 +7241,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -5990,23 +7317,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6032,7 +7359,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6063,7 +7390,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6092,7 +7419,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6121,7 +7448,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6150,7 +7477,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6179,7 +7506,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6208,7 +7535,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6239,7 +7566,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6268,7 +7595,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6297,7 +7624,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6326,7 +7653,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7557,13 +8884,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7575,6 +8895,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_TarisSG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang10\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang10\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="113">
   <si>
     <t>STT</t>
   </si>
@@ -322,6 +322,60 @@
   </si>
   <si>
     <t>"*LK</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,30041</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn</t>
+  </si>
+  <si>
+    <t>Thay cầu chì, diode quá áp</t>
+  </si>
+  <si>
+    <t>112.213.94.88,20005</t>
+  </si>
+  <si>
+    <t>Thiết bị mất nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý connector nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thiết bị sai baurate GPS</t>
+  </si>
+  <si>
+    <t>Cấu hình lại baurateGPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,30005</t>
+  </si>
+  <si>
+    <t>Thay diode quá áp, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Kiểm tra lại dịch vụ trên server</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183038005521</t>
+  </si>
+  <si>
+    <t>GSM,NCFW</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183038005935</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,20005</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GPS, NCFW</t>
+  </si>
+  <si>
+    <t>Xử lý lai nguồn</t>
   </si>
 </sst>
 </file>
@@ -422,7 +476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -520,11 +574,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -721,6 +821,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,6 +890,15 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -754,17 +908,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1410"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1105,43 +1250,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="47"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="68"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1154,11 +1299,11 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
       <c r="R2" s="23"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
       <c r="V2" s="28"/>
-      <c r="W2" s="27"/>
+      <c r="W2" s="68"/>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -1179,107 +1324,107 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
       <c r="V3" s="28"/>
-      <c r="W3" s="27"/>
+      <c r="W3" s="68"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="T4" s="69"/>
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="68"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="66" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="64" t="s">
+      <c r="J5" s="81"/>
+      <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="48"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="68"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1328,13 +1473,13 @@
       <c r="R6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="4"/>
+      <c r="S6" s="70"/>
       <c r="T6" s="10"/>
-      <c r="U6" s="79"/>
+      <c r="U6" s="74"/>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="65"/>
+      <c r="W6" s="68"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1355,23 +1500,41 @@
         <v>66</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="I7" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
+      <c r="O7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="S7" s="70"/>
       <c r="T7" s="10"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="65"/>
+      <c r="W7" s="68"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1402,13 +1565,13 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
+      <c r="S8" s="70"/>
       <c r="T8" s="10"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="65"/>
+      <c r="W8" s="68"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1439,13 +1602,13 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
-      <c r="S9" s="4"/>
+      <c r="S9" s="70"/>
       <c r="T9" s="10"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="65"/>
+      <c r="W9" s="68"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1494,13 +1657,13 @@
       <c r="R10" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="S10" s="4"/>
+      <c r="S10" s="70"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="65"/>
+      <c r="W10" s="68"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1547,13 +1710,13 @@
       <c r="R11" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="S11" s="4"/>
+      <c r="S11" s="70"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="65"/>
+      <c r="W11" s="68"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1584,13 +1747,13 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="38"/>
-      <c r="S12" s="4"/>
+      <c r="S12" s="70"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="79"/>
+      <c r="U12" s="74"/>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="65"/>
+      <c r="W12" s="68"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1621,13 +1784,13 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="38"/>
-      <c r="S13" s="4"/>
+      <c r="S13" s="70"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="65"/>
+      <c r="W13" s="68"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1674,13 +1837,13 @@
       <c r="R14" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="4"/>
+      <c r="S14" s="70"/>
       <c r="T14" s="10"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="65"/>
+      <c r="W14" s="68"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1711,13 +1874,13 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="38"/>
-      <c r="S15" s="4"/>
+      <c r="S15" s="70"/>
       <c r="T15" s="10"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="65"/>
+      <c r="W15" s="68"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1748,13 +1911,13 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="38"/>
-      <c r="S16" s="4"/>
+      <c r="S16" s="70"/>
       <c r="T16" s="10"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="65"/>
+      <c r="W16" s="68"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1785,11 +1948,11 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="38"/>
-      <c r="S17" s="4"/>
+      <c r="S17" s="70"/>
       <c r="T17" s="10"/>
-      <c r="U17" s="79"/>
+      <c r="U17" s="74"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="65"/>
+      <c r="W17" s="68"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1810,21 +1973,37 @@
         <v>66</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="60" t="s">
+        <v>88</v>
+      </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
+      <c r="K18" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="4"/>
+      <c r="O18" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="70"/>
       <c r="T18" s="10"/>
-      <c r="U18" s="79"/>
+      <c r="U18" s="74"/>
       <c r="V18" s="16"/>
-      <c r="W18" s="14"/>
+      <c r="W18" s="68"/>
     </row>
     <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -1871,13 +2050,13 @@
       <c r="R19" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="S19" s="4"/>
+      <c r="S19" s="70"/>
       <c r="T19" s="10"/>
-      <c r="U19" s="79"/>
+      <c r="U19" s="74"/>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="68"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -1908,14 +2087,14 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="10"/>
-      <c r="S20" s="4"/>
+      <c r="S20" s="70"/>
       <c r="T20" s="10"/>
-      <c r="U20" s="79"/>
+      <c r="U20" s="74"/>
       <c r="V20" s="10">
         <f>COUNTIF($Q$49:$Q$51,"PM")</f>
         <v>0</v>
       </c>
-      <c r="W20" s="14"/>
+      <c r="W20" s="68"/>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -1946,14 +2125,14 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="10"/>
-      <c r="S21" s="4"/>
+      <c r="S21" s="70"/>
       <c r="T21" s="10"/>
-      <c r="U21" s="79"/>
+      <c r="U21" s="74"/>
       <c r="V21" s="10">
         <f>COUNTIF($Q$49:$Q$51,"PC")</f>
         <v>0</v>
       </c>
-      <c r="W21" s="14"/>
+      <c r="W21" s="68"/>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -2000,14 +2179,14 @@
       <c r="R22" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="S22" s="4"/>
+      <c r="S22" s="70"/>
       <c r="T22" s="10"/>
-      <c r="U22" s="79"/>
+      <c r="U22" s="74"/>
       <c r="V22" s="10">
         <f>COUNTIF($Q$49:$Q$51,"PC+PM")</f>
         <v>0</v>
       </c>
-      <c r="W22" s="14"/>
+      <c r="W22" s="68"/>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -2028,21 +2207,39 @@
         <v>66</v>
       </c>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="I23" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="4"/>
+      <c r="O23" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="S23" s="70"/>
       <c r="T23" s="10"/>
-      <c r="U23" s="79"/>
+      <c r="U23" s="74"/>
       <c r="V23" s="16"/>
-      <c r="W23" s="14"/>
+      <c r="W23" s="68"/>
     </row>
     <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -2073,11 +2270,11 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="4"/>
+      <c r="S24" s="70"/>
       <c r="T24" s="10"/>
-      <c r="U24" s="79"/>
+      <c r="U24" s="74"/>
       <c r="V24" s="16"/>
-      <c r="W24" s="14"/>
+      <c r="W24" s="68"/>
     </row>
     <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -2124,13 +2321,13 @@
       <c r="R25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="S25" s="4"/>
+      <c r="S25" s="70"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="79"/>
+      <c r="U25" s="74"/>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="68"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -2161,14 +2358,14 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="4"/>
+      <c r="S26" s="70"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="79"/>
+      <c r="U26" s="74"/>
       <c r="V26" s="10">
         <f>COUNTIF($R$49:$R$51,"*MCU*")</f>
         <v>0</v>
       </c>
-      <c r="W26" s="14"/>
+      <c r="W26" s="68"/>
     </row>
     <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -2199,14 +2396,14 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="10"/>
-      <c r="S27" s="4"/>
+      <c r="S27" s="70"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="79"/>
+      <c r="U27" s="74"/>
       <c r="V27" s="10">
         <f>COUNTIF($R$49:$R$51,"*GSM*")</f>
         <v>0</v>
       </c>
-      <c r="W27" s="14"/>
+      <c r="W27" s="68"/>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -2226,7 +2423,9 @@
       <c r="G28" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="I28" s="60" t="s">
         <v>73</v>
       </c>
@@ -2236,29 +2435,33 @@
       <c r="K28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L28" s="10"/>
+      <c r="L28" s="40" t="s">
+        <v>70</v>
+      </c>
       <c r="M28" s="10" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="40"/>
+      <c r="O28" s="40" t="s">
+        <v>71</v>
+      </c>
       <c r="P28" s="10" t="s">
         <v>72</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S28" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="S28" s="70"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="79"/>
+      <c r="U28" s="74"/>
       <c r="V28" s="10">
         <f>COUNTIF($R$49:$R$51,"*GPS*")</f>
         <v>0</v>
       </c>
-      <c r="W28" s="14"/>
+      <c r="W28" s="68"/>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -2289,9 +2492,9 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="10"/>
-      <c r="S29" s="4"/>
+      <c r="S29" s="70"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="79"/>
+      <c r="U29" s="74"/>
       <c r="V29" s="10">
         <f>COUNTIF($R$49:$R$51,"*NG*")</f>
         <v>0</v>
@@ -2327,9 +2530,9 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="10"/>
-      <c r="S30" s="4"/>
+      <c r="S30" s="70"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="79"/>
+      <c r="U30" s="74"/>
       <c r="V30" s="10">
         <f>COUNTIF($R$49:$R$51,"*I/O*")</f>
         <v>0</v>
@@ -2365,9 +2568,9 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="10"/>
-      <c r="S31" s="4"/>
+      <c r="S31" s="70"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="79"/>
+      <c r="U31" s="74"/>
       <c r="V31" s="10">
         <f>COUNTIF($R$49:$R$51,"*LK*")</f>
         <v>0</v>
@@ -2393,19 +2596,37 @@
         <v>63</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="I32" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="4"/>
+      <c r="O32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" s="70"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="79"/>
+      <c r="U32" s="74"/>
       <c r="V32" s="10">
         <f>COUNTIF($R$49:$R$51,"*MCH*")</f>
         <v>0</v>
@@ -2441,9 +2662,9 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="10"/>
-      <c r="S33" s="4"/>
+      <c r="S33" s="70"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="79"/>
+      <c r="U33" s="74"/>
       <c r="V33" s="10">
         <f>COUNTIF($R$49:$R$51,"*SF*")</f>
         <v>0</v>
@@ -2479,9 +2700,9 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="10"/>
-      <c r="S34" s="4"/>
+      <c r="S34" s="70"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="79"/>
+      <c r="U34" s="74"/>
       <c r="V34" s="10">
         <f>COUNTIF($R$49:$R$51,"*RTB*")</f>
         <v>0</v>
@@ -2517,9 +2738,9 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="10"/>
-      <c r="S35" s="4"/>
+      <c r="S35" s="70"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="79"/>
+      <c r="U35" s="74"/>
       <c r="V35" s="10">
         <f>COUNTIF($R$49:$R$51,"*NCFW*")</f>
         <v>0</v>
@@ -2555,9 +2776,9 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="10"/>
-      <c r="S36" s="4"/>
+      <c r="S36" s="70"/>
       <c r="T36" s="10"/>
-      <c r="U36" s="79"/>
+      <c r="U36" s="74"/>
       <c r="V36" s="10">
         <f>COUNTIF($R$49:$R$51,"*KL*")</f>
         <v>0</v>
@@ -2599,7 +2820,9 @@
         <v>86</v>
       </c>
       <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="O37" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="P37" s="1" t="s">
         <v>72</v>
       </c>
@@ -2609,9 +2832,9 @@
       <c r="R37" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="S37" s="4"/>
+      <c r="S37" s="70"/>
       <c r="T37" s="10"/>
-      <c r="U37" s="79"/>
+      <c r="U37" s="74"/>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
         <v>0</v>
@@ -2636,7 +2859,9 @@
       <c r="G38" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="I38" s="60" t="s">
         <v>88</v>
       </c>
@@ -2646,24 +2871,28 @@
       <c r="K38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L38" s="1"/>
+      <c r="L38" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="M38" s="1" t="s">
         <v>83</v>
       </c>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="O38" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="P38" s="1" t="s">
         <v>72</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S38" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="S38" s="70"/>
       <c r="T38" s="10"/>
-      <c r="U38" s="79"/>
+      <c r="U38" s="74"/>
       <c r="V38" s="16"/>
       <c r="W38" s="14"/>
     </row>
@@ -2702,7 +2931,9 @@
         <v>90</v>
       </c>
       <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="O39" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="P39" s="1" t="s">
         <v>72</v>
       </c>
@@ -2712,9 +2943,9 @@
       <c r="R39" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S39" s="4"/>
+      <c r="S39" s="70"/>
       <c r="T39" s="10"/>
-      <c r="U39" s="79"/>
+      <c r="U39" s="74"/>
       <c r="V39" s="16"/>
       <c r="W39" s="14"/>
     </row>
@@ -2737,19 +2968,35 @@
         <v>66</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="I40" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="4"/>
+      <c r="P40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R40" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="S40" s="70"/>
       <c r="T40" s="10"/>
-      <c r="U40" s="79"/>
+      <c r="U40" s="74"/>
       <c r="V40" s="10">
         <f>COUNTIF($O$49:$O$51,"*DM*")</f>
         <v>0</v>
@@ -2791,7 +3038,9 @@
         <v>93</v>
       </c>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+      <c r="O41" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="P41" s="1" t="s">
         <v>72</v>
       </c>
@@ -2801,9 +3050,9 @@
       <c r="R41" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="S41" s="4"/>
+      <c r="S41" s="70"/>
       <c r="T41" s="10"/>
-      <c r="U41" s="79"/>
+      <c r="U41" s="74"/>
       <c r="V41" s="10">
         <f>COUNTIF($O$49:$O$51,"*KS*")</f>
         <v>0</v>
@@ -2829,19 +3078,37 @@
         <v>63</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="I42" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="4"/>
+      <c r="O42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="S42" s="70"/>
       <c r="T42" s="10"/>
-      <c r="U42" s="79"/>
+      <c r="U42" s="74"/>
       <c r="V42" s="16"/>
       <c r="W42" s="14"/>
     </row>
@@ -2874,9 +3141,9 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="10"/>
-      <c r="S43" s="4"/>
+      <c r="S43" s="70"/>
       <c r="T43" s="10"/>
-      <c r="U43" s="79"/>
+      <c r="U43" s="74"/>
       <c r="V43" s="16"/>
       <c r="W43" s="14"/>
     </row>
@@ -2909,9 +3176,9 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="10"/>
-      <c r="S44" s="4"/>
+      <c r="S44" s="70"/>
       <c r="T44" s="10"/>
-      <c r="U44" s="79"/>
+      <c r="U44" s="74"/>
       <c r="V44" s="10" t="s">
         <v>58</v>
       </c>
@@ -2940,20 +3207,40 @@
       <c r="G45" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I45" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="4"/>
+      <c r="O45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R45" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="S45" s="70"/>
       <c r="T45" s="10"/>
-      <c r="U45" s="79"/>
+      <c r="U45" s="74"/>
       <c r="V45" s="10">
         <f>COUNTIFS($D$49:$D$300,"TG102LE",$H$49:$H$300,"*Lô 3-20*")</f>
         <v>0</v>
@@ -2996,9 +3283,9 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="10"/>
-      <c r="S46" s="4"/>
+      <c r="S46" s="70"/>
       <c r="T46" s="10"/>
-      <c r="U46" s="79"/>
+      <c r="U46" s="74"/>
       <c r="V46" s="10">
         <f>COUNTIFS($D$49:$D$300,"TG102LE-4G",$H$49:$H$300,"*Lô 3-20*")</f>
         <v>0</v>
@@ -3041,9 +3328,9 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="10"/>
-      <c r="S47" s="4"/>
+      <c r="S47" s="70"/>
       <c r="T47" s="10"/>
-      <c r="U47" s="79"/>
+      <c r="U47" s="74"/>
       <c r="V47" s="10">
         <f>COUNTIFS($D$49:$D$300,"TG102E",$H$49:$H$300,"*Lô 3-20*")</f>
         <v>0</v>
@@ -3086,9 +3373,9 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="10"/>
-      <c r="S48" s="4"/>
+      <c r="S48" s="70"/>
       <c r="T48" s="10"/>
-      <c r="U48" s="79"/>
+      <c r="U48" s="74"/>
       <c r="V48" s="10">
         <f>COUNTIFS($D$49:$D$300,"ACT-01",$H$49:$H$300,"*Lô 3-20*")</f>
         <v>0</v>
@@ -3123,9 +3410,9 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="10"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
+      <c r="S49" s="70"/>
+      <c r="T49" s="77"/>
+      <c r="U49" s="75"/>
       <c r="V49" s="46"/>
       <c r="W49" s="46"/>
       <c r="X49" s="33"/>
@@ -3151,9 +3438,9 @@
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
       <c r="R50" s="45"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
+      <c r="S50" s="71"/>
+      <c r="T50" s="77"/>
+      <c r="U50" s="75"/>
       <c r="V50" s="46"/>
       <c r="W50" s="46"/>
       <c r="X50" s="33"/>
@@ -3179,9 +3466,9 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
+      <c r="S51" s="72"/>
+      <c r="T51" s="77"/>
+      <c r="U51" s="75"/>
       <c r="V51" s="46"/>
       <c r="W51" s="46"/>
       <c r="X51" s="33"/>
@@ -3207,9 +3494,9 @@
       <c r="P52" s="33"/>
       <c r="Q52" s="33"/>
       <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
+      <c r="S52" s="73"/>
+      <c r="T52" s="77"/>
+      <c r="U52" s="75"/>
       <c r="V52" s="46"/>
       <c r="W52" s="46"/>
       <c r="X52" s="33"/>
@@ -3235,9 +3522,9 @@
       <c r="P53" s="33"/>
       <c r="Q53" s="33"/>
       <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="77"/>
+      <c r="U53" s="75"/>
       <c r="V53" s="46"/>
       <c r="W53" s="46"/>
       <c r="X53" s="33"/>
@@ -3263,9 +3550,9 @@
       <c r="P54" s="33"/>
       <c r="Q54" s="33"/>
       <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
+      <c r="S54" s="73"/>
+      <c r="T54" s="77"/>
+      <c r="U54" s="75"/>
       <c r="V54" s="46"/>
       <c r="W54" s="46"/>
       <c r="X54" s="33"/>
@@ -3291,9 +3578,9 @@
       <c r="P55" s="33"/>
       <c r="Q55" s="33"/>
       <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
+      <c r="S55" s="73"/>
+      <c r="T55" s="78"/>
+      <c r="U55" s="75"/>
       <c r="V55" s="46"/>
       <c r="W55" s="46"/>
       <c r="X55" s="33"/>
@@ -3309,17 +3596,12 @@
       <c r="W57" s="25"/>
     </row>
     <row r="1410" spans="25:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y1410" s="80" t="s">
+      <c r="Y1410" s="67" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3331,6 +3613,11 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3341,7 +3628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -3374,43 +3661,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3455,58 +3742,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3531,23 +3818,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3581,7 +3868,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3620,7 +3907,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3657,7 +3944,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3694,7 +3981,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3731,7 +4018,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3768,7 +4055,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3805,7 +4092,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3844,7 +4131,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3881,7 +4168,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3918,7 +4205,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3955,7 +4242,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5351,43 +5638,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5432,58 +5719,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -5508,23 +5795,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5558,7 +5845,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5597,7 +5884,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5634,7 +5921,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5663,7 +5950,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5692,7 +5979,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5721,7 +6008,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5750,7 +6037,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5781,7 +6068,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5810,7 +6097,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5839,7 +6126,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5868,7 +6155,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7160,43 +7447,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7241,58 +7528,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -7317,23 +7604,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7359,7 +7646,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7390,7 +7677,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7419,7 +7706,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7448,7 +7735,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7477,7 +7764,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7506,7 +7793,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7535,7 +7822,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7566,7 +7853,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7595,7 +7882,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7624,7 +7911,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7653,7 +7940,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_TarisSG.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="134">
   <si>
     <t>STT</t>
   </si>
@@ -376,6 +376,69 @@
   </si>
   <si>
     <t>Xử lý lai nguồn</t>
+  </si>
+  <si>
+    <t>Không khởi động được thiết bị</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>203.162.69.75,30050</t>
+  </si>
+  <si>
+    <t>LE.1.00.---04.181025</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,16885</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180925</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,30051</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Thay tran, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.57,21001</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180405</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,16886</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại module GSM/GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>112.213.94.88,31001</t>
+  </si>
+  <si>
+    <t>Thiết bị không khởi động</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180710</t>
+  </si>
+  <si>
+    <t>Thay tụ lọc nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,21075</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,30003</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,30010</t>
   </si>
 </sst>
 </file>
@@ -1217,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1410"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1864,16 +1927,32 @@
         <v>63</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="50" t="s">
+        <v>84</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="K15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="70"/>
       <c r="T15" s="10"/>
       <c r="U15" s="74"/>
@@ -1900,17 +1979,37 @@
       <c r="G16" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="H16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>126</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>87</v>
+      </c>
       <c r="S16" s="70"/>
       <c r="T16" s="10"/>
       <c r="U16" s="74"/>
@@ -2077,16 +2176,32 @@
         <v>63</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="60" t="s">
+        <v>119</v>
+      </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
+      <c r="O20" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S20" s="70"/>
       <c r="T20" s="10"/>
       <c r="U20" s="74"/>
@@ -2259,17 +2374,35 @@
       <c r="G24" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
+      <c r="H24" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="60" t="s">
+        <v>123</v>
+      </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="K24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
+      <c r="O24" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S24" s="70"/>
       <c r="T24" s="10"/>
       <c r="U24" s="74"/>
@@ -2386,16 +2519,34 @@
         <v>63</v>
       </c>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="I27" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L27" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="N27" s="10"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="10"/>
+      <c r="O27" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="S27" s="70"/>
       <c r="T27" s="10"/>
       <c r="U27" s="74"/>
@@ -2482,16 +2633,32 @@
         <v>63</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="1"/>
+      <c r="I29" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="L29" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="10"/>
+      <c r="O29" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="S29" s="70"/>
       <c r="T29" s="10"/>
       <c r="U29" s="74"/>
@@ -2520,16 +2687,32 @@
         <v>63</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="60" t="s">
+        <v>131</v>
+      </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="10"/>
+      <c r="O30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S30" s="70"/>
       <c r="T30" s="10"/>
       <c r="U30" s="74"/>
@@ -2558,16 +2741,32 @@
         <v>63</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="60" t="s">
+        <v>133</v>
+      </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L31" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="10"/>
+      <c r="O31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S31" s="70"/>
       <c r="T31" s="10"/>
       <c r="U31" s="74"/>
@@ -2690,16 +2889,32 @@
         <v>63</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
+      <c r="I34" s="60" t="s">
+        <v>132</v>
+      </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="10"/>
+      <c r="O34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S34" s="70"/>
       <c r="T34" s="10"/>
       <c r="U34" s="74"/>
@@ -2728,16 +2943,32 @@
         <v>63</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="1"/>
+      <c r="I35" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="10"/>
+      <c r="O35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S35" s="70"/>
       <c r="T35" s="10"/>
       <c r="U35" s="74"/>
@@ -3130,10 +3361,16 @@
       <c r="G43" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
+      <c r="H43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="60" t="s">
+        <v>117</v>
+      </c>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3273,16 +3510,34 @@
         <v>63</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="I46" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="10"/>
+      <c r="O46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="S46" s="70"/>
       <c r="T46" s="10"/>
       <c r="U46" s="74"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_TarisSG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="36" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="160">
   <si>
     <t>STT</t>
   </si>
@@ -375,9 +375,6 @@
     <t>GPS, NCFW</t>
   </si>
   <si>
-    <t>Xử lý lai nguồn</t>
-  </si>
-  <si>
     <t>Không khởi động được thiết bị</t>
   </si>
   <si>
@@ -439,6 +436,87 @@
   </si>
   <si>
     <t>Lock: 203.162.69.75,30010</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20175</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn</t>
+  </si>
+  <si>
+    <t>Nguồn chập chờn, cháy led</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn, thay led, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thiết bị nước vào oxi hóa mạch</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,21375</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.57,20001</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,30001</t>
+  </si>
+  <si>
+    <t>112.213.94.88,30003</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.57,21002</t>
+  </si>
+  <si>
+    <t>203.162.69.75,20475</t>
+  </si>
+  <si>
+    <t>203.162.69.75,30031</t>
+  </si>
+  <si>
+    <t>203.162.69.75,30051</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,17880</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Kiểm tra dịch vụ trên server</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GPS</t>
+  </si>
+  <si>
+    <t>Thay module GPS</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20075</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180320 </t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,30021</t>
   </si>
 </sst>
 </file>
@@ -1280,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1410"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView showZeros="0" topLeftCell="J19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1618,16 +1696,32 @@
         <v>63</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="60"/>
+      <c r="I8" s="60" t="s">
+        <v>140</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="K8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="70"/>
       <c r="T8" s="10"/>
       <c r="U8" s="74"/>
@@ -1655,16 +1749,32 @@
         <v>63</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="50"/>
+      <c r="I9" s="50" t="s">
+        <v>144</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="K9" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="70"/>
       <c r="T9" s="10"/>
       <c r="U9" s="74"/>
@@ -1800,16 +1910,32 @@
         <v>63</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="1"/>
+      <c r="I12" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="L12" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>113</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S12" s="70"/>
       <c r="T12" s="10"/>
       <c r="U12" s="74"/>
@@ -1837,16 +1963,32 @@
         <v>63</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="50" t="s">
+        <v>109</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
+      <c r="K13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="38"/>
+      <c r="O13" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="70"/>
       <c r="T13" s="10"/>
       <c r="U13" s="74"/>
@@ -1983,19 +2125,19 @@
         <v>105</v>
       </c>
       <c r="I16" s="60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L16" s="40" t="s">
         <v>70</v>
       </c>
       <c r="M16" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="40" t="s">
@@ -2037,16 +2179,32 @@
         <v>63</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
+      <c r="I17" s="60" t="s">
+        <v>141</v>
+      </c>
       <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
+      <c r="K17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="38"/>
+      <c r="O17" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S17" s="70"/>
       <c r="T17" s="10"/>
       <c r="U17" s="74"/>
@@ -2177,11 +2335,11 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L20" s="40" t="s">
         <v>70</v>
@@ -2230,16 +2388,32 @@
         <v>63</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="60" t="s">
+        <v>139</v>
+      </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
+      <c r="O21" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S21" s="70"/>
       <c r="T21" s="10"/>
       <c r="U21" s="74"/>
@@ -2378,7 +2552,7 @@
         <v>105</v>
       </c>
       <c r="I24" s="60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="10" t="s">
@@ -2481,16 +2655,32 @@
         <v>63</v>
       </c>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="60" t="s">
+        <v>147</v>
+      </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="K26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="10"/>
+      <c r="O26" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S26" s="70"/>
       <c r="T26" s="10"/>
       <c r="U26" s="74"/>
@@ -2526,13 +2716,13 @@
         <v>96</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L27" s="40" t="s">
         <v>70</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N27" s="10"/>
       <c r="O27" s="40" t="s">
@@ -2634,17 +2824,17 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="40" t="s">
         <v>70</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="40" t="s">
@@ -2688,7 +2878,7 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
@@ -2742,7 +2932,7 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
@@ -2851,16 +3041,34 @@
         <v>63</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="I33" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K33" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="10"/>
+      <c r="O33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="S33" s="70"/>
       <c r="T33" s="10"/>
       <c r="U33" s="74"/>
@@ -2890,11 +3098,11 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>70</v>
@@ -2944,17 +3152,17 @@
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
         <v>70</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
@@ -2997,16 +3205,30 @@
         <v>63</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="60" t="s">
+        <v>146</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="10"/>
+      <c r="O36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S36" s="70"/>
       <c r="T36" s="10"/>
       <c r="U36" s="74"/>
@@ -3215,7 +3437,9 @@
         <v>97</v>
       </c>
       <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+      <c r="O40" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="P40" s="1" t="s">
         <v>72</v>
       </c>
@@ -3322,7 +3546,7 @@
         <v>70</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
@@ -3365,19 +3589,31 @@
         <v>105</v>
       </c>
       <c r="I43" s="60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="10"/>
+      <c r="O43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R43" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S43" s="70"/>
       <c r="T43" s="10"/>
       <c r="U43" s="74"/>
@@ -3403,16 +3639,34 @@
         <v>63</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="I44" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="10"/>
+      <c r="O44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R44" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="S44" s="70"/>
       <c r="T44" s="10"/>
       <c r="U44" s="74"/>
@@ -3511,19 +3765,19 @@
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="K46" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>70</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
@@ -3536,7 +3790,7 @@
         <v>76</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S46" s="70"/>
       <c r="T46" s="10"/>
@@ -3573,16 +3827,32 @@
         <v>63</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="60"/>
+      <c r="I47" s="60" t="s">
+        <v>145</v>
+      </c>
       <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="10"/>
+      <c r="O47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R47" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S47" s="70"/>
       <c r="T47" s="10"/>
       <c r="U47" s="74"/>
@@ -3618,16 +3888,34 @@
         <v>63</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="I48" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="10"/>
+      <c r="O48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R48" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="S48" s="70"/>
       <c r="T48" s="10"/>
       <c r="U48" s="74"/>
@@ -3883,8 +4171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3904,7 +4192,7 @@
     <col min="13" max="13" width="58" style="20" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="20" customWidth="1"/>
     <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
     <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
     <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
@@ -4187,16 +4475,34 @@
         <v>63</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="I8" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>150</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>157</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
       <c r="U8" s="93"/>
@@ -4224,9 +4530,13 @@
         <v>63</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="50"/>
+      <c r="I9" s="50" t="s">
+        <v>159</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
+      <c r="K9" s="40" t="s">
+        <v>158</v>
+      </c>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
       <c r="N9" s="1"/>
@@ -4260,17 +4570,37 @@
       <c r="G10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="H10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>150</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>121</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
       <c r="U10" s="93"/>
@@ -4335,16 +4665,32 @@
         <v>63</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="1"/>
+      <c r="M12" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="N12" s="51">
+        <v>385000</v>
+      </c>
       <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="38"/>
+      <c r="P12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
       <c r="U12" s="92" t="s">
@@ -4688,7 +5034,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -4728,7 +5074,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -4957,7 +5303,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -5061,7 +5407,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -5189,7 +5535,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5253,7 +5599,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -5832,6 +6178,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5843,13 +6196,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7641,13 +7987,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7659,6 +7998,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9426,6 +9772,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9437,13 +9790,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_TarisSG.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="176">
   <si>
     <t>STT</t>
   </si>
@@ -517,6 +517,54 @@
   </si>
   <si>
     <t>Lock: 203.162.69.75,30021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20275</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim, mất imei</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại thiết bị, nâng cấp FW, nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>LK,SF,NCFW</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>203.162.69.18,16880</t>
+  </si>
+  <si>
+    <t>Mạch oxi hóa lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn, nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>NG.NCFW</t>
+  </si>
+  <si>
+    <t>Cấu hình lại thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị không quẹt được thẻ RFID</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,16880</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,30000</t>
+  </si>
+  <si>
+    <t>ID: 201908201120148</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,30006</t>
   </si>
 </sst>
 </file>
@@ -1358,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1410"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView showZeros="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1585,7 +1633,7 @@
       <c r="G6" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="60" t="s">
         <v>67</v>
       </c>
@@ -1640,7 +1688,7 @@
       <c r="G7" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="38"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="60" t="s">
         <v>78</v>
       </c>
@@ -4172,7 +4220,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4438,9 +4486,13 @@
         <v>63</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="60"/>
+      <c r="I7" s="60" t="s">
+        <v>175</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="52"/>
+      <c r="K7" s="52" t="s">
+        <v>158</v>
+      </c>
       <c r="L7" s="40"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -4533,17 +4585,31 @@
       <c r="I9" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="K9" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="L9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>150</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>157</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
       <c r="U9" s="93"/>
@@ -4628,16 +4694,34 @@
         <v>63</v>
       </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="I11" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>163</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>164</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
       <c r="U11" s="93"/>
@@ -4757,16 +4841,34 @@
         <v>63</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="1"/>
+      <c r="I14" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>121</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
       <c r="U14" s="93"/>
@@ -4794,16 +4896,32 @@
         <v>63</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="M15" s="40" t="s">
+        <v>170</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
       <c r="U15" s="93"/>
@@ -4994,7 +5112,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5017,16 +5135,34 @@
         <v>63</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="I21" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
+      <c r="O21" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="14"/>
       <c r="U21" s="10" t="s">
@@ -5034,7 +5170,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5074,7 +5210,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5131,17 +5267,37 @@
       <c r="G24" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="H24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
+      <c r="O24" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
@@ -5205,17 +5361,37 @@
       <c r="G26" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="H26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="10"/>
+      <c r="O26" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="S26" s="4"/>
       <c r="T26" s="14"/>
       <c r="U26" s="4" t="s">
@@ -5245,7 +5421,9 @@
       <c r="G27" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="10" t="s">
+        <v>174</v>
+      </c>
       <c r="I27" s="60"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
@@ -5286,16 +5464,32 @@
         <v>63</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="I28" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="M28" s="10" t="s">
+        <v>165</v>
+      </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="10"/>
+      <c r="O28" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="S28" s="4"/>
       <c r="T28" s="14"/>
       <c r="U28" s="4" t="s">
@@ -5343,7 +5537,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -5407,7 +5601,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -5439,7 +5633,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -5471,7 +5665,7 @@
       </c>
       <c r="V33" s="10">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="14"/>
     </row>
@@ -5535,7 +5729,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5599,7 +5793,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6178,13 +6372,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6196,6 +6383,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7987,6 +8181,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7998,13 +8199,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9772,13 +9966,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9790,6 +9977,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_TarisSG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="36" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="178">
   <si>
     <t>STT</t>
   </si>
@@ -565,6 +565,12 @@
   </si>
   <si>
     <t>Lock: 112.213.94.88,30006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180115 </t>
+  </si>
+  <si>
+    <t>Lock:  203.162.69.57,20002</t>
   </si>
 </sst>
 </file>
@@ -1406,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1410"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4219,8 +4225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4489,17 +4495,31 @@
       <c r="I7" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="K7" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>150</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>157</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
       <c r="U7" s="93"/>
@@ -4949,16 +4969,34 @@
         <v>63</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="I16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>150</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>121</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
       <c r="U16" s="94"/>
@@ -5210,7 +5248,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5323,16 +5361,34 @@
         <v>63</v>
       </c>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="10"/>
+      <c r="I25" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M25" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R25" s="38" t="s">
+        <v>121</v>
+      </c>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
       <c r="U25" s="53" t="s">
@@ -5601,7 +5657,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -5729,7 +5785,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5793,7 +5849,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="W37" s="14"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_TarisSG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="36" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="179">
   <si>
     <t>STT</t>
   </si>
@@ -571,6 +571,9 @@
   </si>
   <si>
     <t>Lock:  203.162.69.57,20002</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
 </sst>
 </file>
@@ -1412,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1410"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView showZeros="0" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1628,7 +1631,9 @@
       <c r="B6" s="37">
         <v>44497</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44480</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -1683,7 +1688,9 @@
       <c r="B7" s="37">
         <v>44497</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44480</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -1738,7 +1745,9 @@
       <c r="B8" s="37">
         <v>44497</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44480</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -1791,7 +1800,9 @@
       <c r="B9" s="37">
         <v>44497</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44480</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -1844,7 +1855,9 @@
       <c r="B10" s="37">
         <v>44497</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44480</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>44</v>
       </c>
@@ -1899,7 +1912,9 @@
       <c r="B11" s="37">
         <v>44497</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37">
+        <v>44480</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
@@ -1952,7 +1967,9 @@
       <c r="B12" s="37">
         <v>44497</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="37">
+        <v>44480</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
       </c>
@@ -2005,7 +2022,9 @@
       <c r="B13" s="37">
         <v>44497</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="37">
+        <v>44480</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>44</v>
       </c>
@@ -2058,7 +2077,9 @@
       <c r="B14" s="37">
         <v>44497</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="37">
+        <v>44480</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>44</v>
       </c>
@@ -2111,7 +2132,9 @@
       <c r="B15" s="37">
         <v>44497</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="37">
+        <v>44480</v>
+      </c>
       <c r="D15" s="38" t="s">
         <v>44</v>
       </c>
@@ -2164,7 +2187,9 @@
       <c r="B16" s="37">
         <v>44497</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="37">
+        <v>44480</v>
+      </c>
       <c r="D16" s="38" t="s">
         <v>44</v>
       </c>
@@ -2221,7 +2246,9 @@
       <c r="B17" s="37">
         <v>44497</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="37">
+        <v>44480</v>
+      </c>
       <c r="D17" s="38" t="s">
         <v>44</v>
       </c>
@@ -2272,7 +2299,9 @@
       <c r="B18" s="37">
         <v>44497</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="37">
+        <v>44480</v>
+      </c>
       <c r="D18" s="38" t="s">
         <v>44</v>
       </c>
@@ -2323,7 +2352,9 @@
       <c r="B19" s="37">
         <v>44497</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="37">
+        <v>44480</v>
+      </c>
       <c r="D19" s="38" t="s">
         <v>44</v>
       </c>
@@ -2376,7 +2407,9 @@
       <c r="B20" s="37">
         <v>44497</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="37">
+        <v>44480</v>
+      </c>
       <c r="D20" s="38" t="s">
         <v>44</v>
       </c>
@@ -2430,7 +2463,9 @@
       <c r="B21" s="37">
         <v>44497</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="37">
+        <v>44480</v>
+      </c>
       <c r="D21" s="38" t="s">
         <v>44</v>
       </c>
@@ -2484,7 +2519,9 @@
       <c r="B22" s="37">
         <v>44497</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="37">
+        <v>44480</v>
+      </c>
       <c r="D22" s="38" t="s">
         <v>44</v>
       </c>
@@ -2538,7 +2575,9 @@
       <c r="B23" s="37">
         <v>44497</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="37">
+        <v>44480</v>
+      </c>
       <c r="D23" s="38" t="s">
         <v>44</v>
       </c>
@@ -2591,7 +2630,9 @@
       <c r="B24" s="37">
         <v>44497</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="37">
+        <v>44480</v>
+      </c>
       <c r="D24" s="38" t="s">
         <v>44</v>
       </c>
@@ -2644,7 +2685,9 @@
       <c r="B25" s="37">
         <v>44497</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="37">
+        <v>44480</v>
+      </c>
       <c r="D25" s="38" t="s">
         <v>44</v>
       </c>
@@ -2697,7 +2740,9 @@
       <c r="B26" s="37">
         <v>44497</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="37">
+        <v>44480</v>
+      </c>
       <c r="D26" s="38" t="s">
         <v>44</v>
       </c>
@@ -2751,7 +2796,9 @@
       <c r="B27" s="37">
         <v>44497</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="37">
+        <v>44480</v>
+      </c>
       <c r="D27" s="38" t="s">
         <v>44</v>
       </c>
@@ -2807,7 +2854,9 @@
       <c r="B28" s="37">
         <v>44497</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="37">
+        <v>44480</v>
+      </c>
       <c r="D28" s="38" t="s">
         <v>44</v>
       </c>
@@ -2865,7 +2914,9 @@
       <c r="B29" s="37">
         <v>44497</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="37">
+        <v>44480</v>
+      </c>
       <c r="D29" s="38" t="s">
         <v>44</v>
       </c>
@@ -2919,7 +2970,9 @@
       <c r="B30" s="37">
         <v>44497</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="37">
+        <v>44480</v>
+      </c>
       <c r="D30" s="38" t="s">
         <v>44</v>
       </c>
@@ -2973,7 +3026,9 @@
       <c r="B31" s="37">
         <v>44497</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="37">
+        <v>44480</v>
+      </c>
       <c r="D31" s="38" t="s">
         <v>44</v>
       </c>
@@ -3027,7 +3082,9 @@
       <c r="B32" s="37">
         <v>44497</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="37">
+        <v>44480</v>
+      </c>
       <c r="D32" s="38" t="s">
         <v>44</v>
       </c>
@@ -3083,7 +3140,9 @@
       <c r="B33" s="37">
         <v>44497</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="37">
+        <v>44480</v>
+      </c>
       <c r="D33" s="38" t="s">
         <v>44</v>
       </c>
@@ -3139,7 +3198,9 @@
       <c r="B34" s="37">
         <v>44497</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="37">
+        <v>44480</v>
+      </c>
       <c r="D34" s="38" t="s">
         <v>44</v>
       </c>
@@ -3193,7 +3254,9 @@
       <c r="B35" s="37">
         <v>44497</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="37">
+        <v>44480</v>
+      </c>
       <c r="D35" s="38" t="s">
         <v>44</v>
       </c>
@@ -3247,7 +3310,9 @@
       <c r="B36" s="37">
         <v>44497</v>
       </c>
-      <c r="C36" s="9"/>
+      <c r="C36" s="37">
+        <v>44480</v>
+      </c>
       <c r="D36" s="38" t="s">
         <v>44</v>
       </c>
@@ -3299,7 +3364,9 @@
       <c r="B37" s="37">
         <v>44497</v>
       </c>
-      <c r="C37" s="9"/>
+      <c r="C37" s="37">
+        <v>44480</v>
+      </c>
       <c r="D37" s="38" t="s">
         <v>44</v>
       </c>
@@ -3355,7 +3422,9 @@
       <c r="B38" s="37">
         <v>44497</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="37">
+        <v>44480</v>
+      </c>
       <c r="D38" s="38" t="s">
         <v>44</v>
       </c>
@@ -3410,7 +3479,9 @@
       <c r="B39" s="37">
         <v>44497</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="37">
+        <v>44480</v>
+      </c>
       <c r="D39" s="38" t="s">
         <v>44</v>
       </c>
@@ -3463,7 +3534,9 @@
       <c r="B40" s="37">
         <v>44497</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="37">
+        <v>44480</v>
+      </c>
       <c r="D40" s="38" t="s">
         <v>44</v>
       </c>
@@ -3519,7 +3592,9 @@
       <c r="B41" s="37">
         <v>44497</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="37">
+        <v>44480</v>
+      </c>
       <c r="D41" s="38" t="s">
         <v>44</v>
       </c>
@@ -3575,7 +3650,9 @@
       <c r="B42" s="37">
         <v>44497</v>
       </c>
-      <c r="C42" s="9"/>
+      <c r="C42" s="37">
+        <v>44480</v>
+      </c>
       <c r="D42" s="38" t="s">
         <v>44</v>
       </c>
@@ -3628,7 +3705,9 @@
       <c r="B43" s="37">
         <v>44497</v>
       </c>
-      <c r="C43" s="9"/>
+      <c r="C43" s="37">
+        <v>44480</v>
+      </c>
       <c r="D43" s="38" t="s">
         <v>44</v>
       </c>
@@ -3681,7 +3760,9 @@
       <c r="B44" s="37">
         <v>44497</v>
       </c>
-      <c r="C44" s="9"/>
+      <c r="C44" s="37">
+        <v>44480</v>
+      </c>
       <c r="D44" s="38" t="s">
         <v>44</v>
       </c>
@@ -3741,7 +3822,9 @@
       <c r="B45" s="37">
         <v>44497</v>
       </c>
-      <c r="C45" s="9"/>
+      <c r="C45" s="37">
+        <v>44480</v>
+      </c>
       <c r="D45" s="38" t="s">
         <v>44</v>
       </c>
@@ -3806,7 +3889,9 @@
       <c r="B46" s="37">
         <v>44497</v>
       </c>
-      <c r="C46" s="9"/>
+      <c r="C46" s="37">
+        <v>44480</v>
+      </c>
       <c r="D46" s="38" t="s">
         <v>44</v>
       </c>
@@ -3869,7 +3954,9 @@
       <c r="B47" s="37">
         <v>44497</v>
       </c>
-      <c r="C47" s="9"/>
+      <c r="C47" s="37">
+        <v>44480</v>
+      </c>
       <c r="D47" s="38" t="s">
         <v>44</v>
       </c>
@@ -3930,7 +4017,9 @@
       <c r="B48" s="37">
         <v>44497</v>
       </c>
-      <c r="C48" s="9"/>
+      <c r="C48" s="37">
+        <v>44480</v>
+      </c>
       <c r="D48" s="38" t="s">
         <v>44</v>
       </c>
@@ -4225,8 +4314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4441,7 +4530,9 @@
       <c r="B6" s="37">
         <v>44497</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44480</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>65</v>
       </c>
@@ -4459,7 +4550,9 @@
       <c r="L6" s="40"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>178</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="38"/>
@@ -4480,7 +4573,9 @@
       <c r="B7" s="37">
         <v>44497</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44480</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>65</v>
       </c>
@@ -4509,7 +4604,7 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>72</v>
@@ -4535,7 +4630,9 @@
       <c r="B8" s="37">
         <v>44497</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44480</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>65</v>
       </c>
@@ -4564,7 +4661,7 @@
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="40" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>72</v>
@@ -4590,7 +4687,9 @@
       <c r="B9" s="37">
         <v>44497</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44480</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>65</v>
       </c>
@@ -4619,7 +4718,7 @@
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>72</v>
@@ -4645,7 +4744,9 @@
       <c r="B10" s="37">
         <v>44497</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44480</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>65</v>
       </c>
@@ -4676,7 +4777,7 @@
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="40" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>72</v>
@@ -4702,7 +4803,9 @@
       <c r="B11" s="37">
         <v>44497</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37">
+        <v>44480</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>65</v>
       </c>
@@ -4731,7 +4834,7 @@
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="40" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>72</v>
@@ -4757,7 +4860,9 @@
       <c r="B12" s="37">
         <v>44497</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="37">
+        <v>44480</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>65</v>
       </c>
@@ -4782,10 +4887,10 @@
       <c r="M12" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="N12" s="51">
-        <v>385000</v>
-      </c>
-      <c r="O12" s="40"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="40" t="s">
+        <v>178</v>
+      </c>
       <c r="P12" s="1" t="s">
         <v>72</v>
       </c>
@@ -4812,7 +4917,9 @@
       <c r="B13" s="37">
         <v>44497</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="37">
+        <v>44480</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>65</v>
       </c>
@@ -4830,7 +4937,9 @@
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
+      <c r="O13" s="40" t="s">
+        <v>178</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="38"/>
@@ -4849,7 +4958,9 @@
       <c r="B14" s="37">
         <v>44497</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="37">
+        <v>44480</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>65</v>
       </c>
@@ -4878,7 +4989,7 @@
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="40" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>72</v>
@@ -4904,7 +5015,9 @@
       <c r="B15" s="37">
         <v>44497</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="37">
+        <v>44480</v>
+      </c>
       <c r="D15" s="38" t="s">
         <v>65</v>
       </c>
@@ -4931,7 +5044,7 @@
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="40" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>72</v>
@@ -4957,7 +5070,9 @@
       <c r="B16" s="37">
         <v>44497</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="37">
+        <v>44480</v>
+      </c>
       <c r="D16" s="38" t="s">
         <v>65</v>
       </c>
@@ -4986,7 +5101,7 @@
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="40" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>72</v>
@@ -5012,7 +5127,9 @@
       <c r="B17" s="37">
         <v>44497</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="37">
+        <v>44480</v>
+      </c>
       <c r="D17" s="38" t="s">
         <v>65</v>
       </c>
@@ -5030,7 +5147,9 @@
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
+      <c r="O17" s="40" t="s">
+        <v>178</v>
+      </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="38"/>
@@ -5047,7 +5166,9 @@
       <c r="B18" s="37">
         <v>44497</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="37">
+        <v>44480</v>
+      </c>
       <c r="D18" s="38" t="s">
         <v>65</v>
       </c>
@@ -5065,7 +5186,9 @@
       <c r="L18" s="1"/>
       <c r="M18" s="10"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
+      <c r="O18" s="40" t="s">
+        <v>178</v>
+      </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="10"/>
@@ -5082,7 +5205,9 @@
       <c r="B19" s="37">
         <v>44497</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="37">
+        <v>44480</v>
+      </c>
       <c r="D19" s="38" t="s">
         <v>65</v>
       </c>
@@ -5100,7 +5225,9 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="41"/>
-      <c r="O19" s="40"/>
+      <c r="O19" s="40" t="s">
+        <v>178</v>
+      </c>
       <c r="P19" s="40"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="38"/>
@@ -5121,7 +5248,9 @@
       <c r="B20" s="37">
         <v>44497</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="37">
+        <v>44480</v>
+      </c>
       <c r="D20" s="38" t="s">
         <v>65</v>
       </c>
@@ -5139,7 +5268,9 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
+      <c r="O20" s="40" t="s">
+        <v>178</v>
+      </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="10"/>
@@ -5161,7 +5292,9 @@
       <c r="B21" s="37">
         <v>44497</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="37">
+        <v>44480</v>
+      </c>
       <c r="D21" s="38" t="s">
         <v>65</v>
       </c>
@@ -5190,7 +5323,7 @@
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="40" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>72</v>
@@ -5219,7 +5352,9 @@
       <c r="B22" s="37">
         <v>44497</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="37">
+        <v>44480</v>
+      </c>
       <c r="D22" s="38" t="s">
         <v>65</v>
       </c>
@@ -5237,7 +5372,9 @@
       <c r="L22" s="1"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="40"/>
+      <c r="O22" s="40" t="s">
+        <v>178</v>
+      </c>
       <c r="P22" s="10"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="10"/>
@@ -5259,7 +5396,9 @@
       <c r="B23" s="37">
         <v>44497</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="37">
+        <v>44480</v>
+      </c>
       <c r="D23" s="38" t="s">
         <v>65</v>
       </c>
@@ -5277,7 +5416,9 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
+      <c r="O23" s="40" t="s">
+        <v>178</v>
+      </c>
       <c r="P23" s="10"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="10"/>
@@ -5294,7 +5435,9 @@
       <c r="B24" s="37">
         <v>44497</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="37">
+        <v>44480</v>
+      </c>
       <c r="D24" s="38" t="s">
         <v>65</v>
       </c>
@@ -5325,7 +5468,7 @@
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="40" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>72</v>
@@ -5349,7 +5492,9 @@
       <c r="B25" s="37">
         <v>44497</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="37">
+        <v>44480</v>
+      </c>
       <c r="D25" s="38" t="s">
         <v>65</v>
       </c>
@@ -5378,7 +5523,7 @@
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="40" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>72</v>
@@ -5406,7 +5551,9 @@
       <c r="B26" s="37">
         <v>44497</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="37">
+        <v>44480</v>
+      </c>
       <c r="D26" s="38" t="s">
         <v>65</v>
       </c>
@@ -5437,7 +5584,7 @@
       </c>
       <c r="N26" s="10"/>
       <c r="O26" s="40" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="P26" s="10" t="s">
         <v>72</v>
@@ -5466,7 +5613,9 @@
       <c r="B27" s="37">
         <v>44497</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="37">
+        <v>44480</v>
+      </c>
       <c r="D27" s="38" t="s">
         <v>65</v>
       </c>
@@ -5486,7 +5635,9 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
-      <c r="O27" s="40"/>
+      <c r="O27" s="40" t="s">
+        <v>178</v>
+      </c>
       <c r="P27" s="10"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="10"/>
@@ -5508,7 +5659,9 @@
       <c r="B28" s="37">
         <v>44497</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="37">
+        <v>44480</v>
+      </c>
       <c r="D28" s="38" t="s">
         <v>65</v>
       </c>
@@ -5535,7 +5688,7 @@
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="40" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="P28" s="10" t="s">
         <v>72</v>
@@ -5564,7 +5717,9 @@
       <c r="B29" s="37">
         <v>44497</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="37">
+        <v>44480</v>
+      </c>
       <c r="D29" s="38" t="s">
         <v>65</v>
       </c>
@@ -5967,7 +6122,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -6428,6 +6583,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6439,13 +6601,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6457,7 +6612,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6672,7 +6827,9 @@
       <c r="B6" s="37">
         <v>44497</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44480</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>62</v>
       </c>
@@ -6690,7 +6847,9 @@
       <c r="L6" s="40"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>178</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="38"/>
@@ -6711,7 +6870,9 @@
       <c r="B7" s="37">
         <v>44497</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44480</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>62</v>
       </c>
@@ -6729,7 +6890,9 @@
       <c r="L7" s="40"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
+      <c r="O7" s="40" t="s">
+        <v>178</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="38"/>
@@ -6748,7 +6911,9 @@
       <c r="B8" s="37">
         <v>44497</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44480</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>62</v>
       </c>
@@ -6766,7 +6931,9 @@
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
+      <c r="O8" s="40" t="s">
+        <v>178</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
@@ -7776,7 +7943,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -8237,13 +8404,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8255,6 +8415,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10022,6 +10189,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10033,13 +10207,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
